--- a/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4674964547157288</v>
+        <v>0.4674824178218842</v>
       </c>
       <c r="C2" t="n">
         <v>0.550763726234436</v>
@@ -501,7 +501,7 @@
         <v>0.543752908706665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6582608819007874</v>
+        <v>0.6583267450332642</v>
       </c>
       <c r="F2" t="n">
         <v>0.8776652812957764</v>
@@ -513,7 +513,7 @@
         <v>0.6571887731552124</v>
       </c>
       <c r="I2" t="n">
-        <v>1.286695957183838</v>
+        <v>1.286740064620972</v>
       </c>
       <c r="J2" t="n">
         <v>0.4022293090820312</v>
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7856473102510688</v>
+        <v>0.7856509403918992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6486158454179136</v>
+        <v>0.6486199437743645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6517177754627141</v>
+        <v>0.651718468591142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8067927553817846</v>
+        <v>0.8067883933564263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8637950606920659</v>
+        <v>0.8637937558324713</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6515861441736209</v>
+        <v>0.651584850693977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7693558632504629</v>
+        <v>0.7693557598100729</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8554549071494704</v>
+        <v>0.8554553302899331</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6149434569576506</v>
+        <v>0.6149443397950974</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8728434708383348</v>
+        <v>0.8726088603337606</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4674824178218842</v>
+        <v>0.4674894511699677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.550763726234436</v>
+        <v>0.5507922768592834</v>
       </c>
       <c r="D2" t="n">
         <v>0.543752908706665</v>
@@ -504,7 +504,7 @@
         <v>0.6583267450332642</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8776652812957764</v>
+        <v>0.8776788115501404</v>
       </c>
       <c r="G2" t="n">
         <v>0.4712377786636353</v>
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7856509403918992</v>
+        <v>0.7856677767130351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6486199437743645</v>
+        <v>0.6486157575259245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.651718468591142</v>
+        <v>0.6517194462754261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8067883933564263</v>
+        <v>0.8067939655072447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8637937558324713</v>
+        <v>0.8638003278227068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.651584850693977</v>
+        <v>0.6515868344565653</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7693557598100729</v>
+        <v>0.7693539430839889</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8554553302899331</v>
+        <v>0.8554565271091882</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6149443397950974</v>
+        <v>0.6149517714111193</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8726088603337606</v>
+        <v>0.8728431678480573</v>
       </c>
     </row>
   </sheetData>
